--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 5.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 5.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -680,7 +680,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -956,7 +956,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1232,7 +1232,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1301,7 +1301,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1324,7 +1324,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1370,7 +1370,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1393,7 +1393,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1439,7 +1439,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1623,7 +1623,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1738,7 +1738,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1761,7 +1761,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1784,7 +1784,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1830,7 +1830,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1853,7 +1853,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1899,7 +1899,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1945,7 +1945,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1968,7 +1968,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1991,7 +1991,7 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2037,7 +2037,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2060,7 +2060,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2175,7 +2175,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2221,7 +2221,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2520,7 +2520,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2543,7 +2543,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2589,7 +2589,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2612,7 +2612,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2635,7 +2635,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2658,7 +2658,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2708,7 +2708,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2731,7 +2731,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2823,7 +2823,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2846,7 +2846,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2892,7 +2892,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2938,7 +2938,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -2961,7 +2961,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3007,7 +3007,7 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3030,7 +3030,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
